--- a/Flughafen.xlsx
+++ b/Flughafen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Ifsy\Praktikum_Datenbanken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B3D2A5-7803-4B5B-B8CA-DA6C7EE4934F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C50867-6BAF-473B-A220-0F8E3926CEC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="28800" windowHeight="11655" xr2:uid="{854A1E1C-1DAB-4717-AF4C-8C81AEB28F79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{854A1E1C-1DAB-4717-AF4C-8C81AEB28F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Bezeichnung</t>
   </si>
   <si>
-    <t>Verbindungen_F</t>
-  </si>
-  <si>
     <t>Airlines_F</t>
   </si>
   <si>
@@ -114,12 +111,6 @@
     <t>StandortID</t>
   </si>
   <si>
-    <t>Verbindung_F</t>
-  </si>
-  <si>
-    <t>Personal_F</t>
-  </si>
-  <si>
     <t>Ortsname</t>
   </si>
   <si>
@@ -202,6 +193,252 @@
   </si>
   <si>
     <t>Boeing 777F</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluglotse </t>
+  </si>
+  <si>
+    <t>Marshaller</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinigungskraft </t>
+  </si>
+  <si>
+    <t>Mechaniker</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Stewardess</t>
+  </si>
+  <si>
+    <t>Zoll</t>
+  </si>
+  <si>
+    <t>Passkontrollbeamter</t>
+  </si>
+  <si>
+    <t>ArbeitsbereichID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezeichnung </t>
+  </si>
+  <si>
+    <t>Eneko</t>
+  </si>
+  <si>
+    <t>Lennard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reichert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pramhas </t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Richter</t>
+  </si>
+  <si>
+    <t>Lenny</t>
+  </si>
+  <si>
+    <t>Zeisler</t>
+  </si>
+  <si>
+    <t>Darian</t>
+  </si>
+  <si>
+    <t>Thiele</t>
+  </si>
+  <si>
+    <t>Janik</t>
+  </si>
+  <si>
+    <t>Sonne</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Bauer</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Nagelmann</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Schulz</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Schulze</t>
+  </si>
+  <si>
+    <t>Maddox</t>
+  </si>
+  <si>
+    <t>Golzsch</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Poenitsch</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Seidler</t>
+  </si>
+  <si>
+    <t>Franzi</t>
+  </si>
+  <si>
+    <t>Thriemer</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Engler</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Geisler</t>
+  </si>
+  <si>
+    <t>Timo</t>
+  </si>
+  <si>
+    <t>Hartl</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Buschmann</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Horst</t>
+  </si>
+  <si>
+    <t>Lichter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markus </t>
+  </si>
+  <si>
+    <t>Ruehl</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Marianne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlabs </t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>Rudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankfurt </t>
+  </si>
+  <si>
+    <t>Muenchen</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>Seifert</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>Reichelt</t>
+  </si>
+  <si>
+    <t>Katrin</t>
+  </si>
+  <si>
+    <t>Sildermann</t>
+  </si>
+  <si>
+    <t>Nadiene</t>
+  </si>
+  <si>
+    <t>Reinke</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Zigel</t>
+  </si>
+  <si>
+    <t>07C 25C Centerbahn</t>
+  </si>
+  <si>
+    <t>07R 25L Südbahn</t>
+  </si>
+  <si>
+    <t>07L 25R Nordwestbahn</t>
+  </si>
+  <si>
+    <t>24R 06L Nordbahn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06L 24R Südbahn </t>
+  </si>
+  <si>
+    <t>08L 26R Ostbahn</t>
+  </si>
+  <si>
+    <t>08R 26L Westbahn</t>
   </si>
 </sst>
 </file>
@@ -563,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A6E37-1F20-456E-ACD0-33B7AB6994AF}">
-  <dimension ref="A2:U38"/>
+  <dimension ref="A2:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,15 +816,21 @@
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -611,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>7</v>
@@ -620,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="R2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
         <v>0</v>
@@ -637,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -646,10 +889,25 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -657,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -666,10 +924,25 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -677,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>124</v>
@@ -686,10 +959,25 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -697,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>70</v>
@@ -706,10 +994,25 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -717,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -726,10 +1029,25 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -737,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>119</v>
@@ -746,10 +1064,25 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" t="s">
+        <v>79</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -757,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>90</v>
@@ -766,10 +1099,25 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -777,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>227</v>
@@ -786,10 +1134,25 @@
         <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -797,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>284</v>
@@ -806,10 +1169,25 @@
         <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -817,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>150</v>
@@ -826,10 +1204,25 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>8</v>
+      </c>
+      <c r="S12" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" t="s">
+        <v>87</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -837,10 +1230,25 @@
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -848,10 +1256,25 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -859,10 +1282,25 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T15" t="s">
+        <v>93</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -870,106 +1308,608 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>94</v>
+      </c>
+      <c r="T16" t="s">
+        <v>95</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>96</v>
+      </c>
+      <c r="T17" t="s">
+        <v>97</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18" t="s">
+        <v>98</v>
+      </c>
+      <c r="T18" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>100</v>
+      </c>
+      <c r="T19" t="s">
+        <v>101</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20" t="s">
+        <v>102</v>
+      </c>
+      <c r="T20" t="s">
+        <v>103</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21" t="s">
+        <v>104</v>
+      </c>
+      <c r="T21" t="s">
+        <v>105</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="S22" t="s">
+        <v>106</v>
+      </c>
+      <c r="T22" t="s">
+        <v>107</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>21</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T23" t="s">
+        <v>109</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>22</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>110</v>
+      </c>
+      <c r="T24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>23</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25" t="s">
+        <v>112</v>
+      </c>
+      <c r="T25" t="s">
+        <v>113</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>24</v>
+      </c>
+      <c r="R26">
+        <v>9</v>
+      </c>
+      <c r="S26" t="s">
+        <v>114</v>
+      </c>
+      <c r="T26" t="s">
+        <v>115</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>25</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s">
+        <v>117</v>
+      </c>
+      <c r="T27" t="s">
+        <v>116</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28" t="s">
+        <v>121</v>
+      </c>
+      <c r="T28" t="s">
+        <v>122</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>27</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T29" t="s">
+        <v>124</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>28</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30" t="s">
+        <v>125</v>
+      </c>
+      <c r="T30" t="s">
+        <v>126</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>29</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31" t="s">
+        <v>127</v>
+      </c>
+      <c r="T31" t="s">
+        <v>128</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s">
+        <v>129</v>
+      </c>
+      <c r="T32" t="s">
+        <v>130</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34" t="s">
+        <v>66</v>
+      </c>
+      <c r="T34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>132</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>133</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38" t="s">
+        <v>134</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>135</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40" t="s">
+        <v>136</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41" t="s">
+        <v>137</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>7</v>
+      </c>
+      <c r="T41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
         <v>11</v>
       </c>
-      <c r="H30" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="I42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="J42" t="s">
         <v>27</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K42" t="s">
         <v>28</v>
       </c>
-      <c r="K38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O38" t="s">
-        <v>17</v>
+      <c r="S42">
+        <v>8</v>
+      </c>
+      <c r="T42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>120</v>
+      </c>
+      <c r="S43">
+        <v>9</v>
+      </c>
+      <c r="T43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>118</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Flughafen.xlsx
+++ b/Flughafen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Ifsy\Praktikum_Datenbanken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D54C1B-F9E8-41FD-9615-7144490A1D38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B1F5D-A9DD-4D66-A479-A638AE13B924}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="570" windowWidth="28800" windowHeight="11655" xr2:uid="{854A1E1C-1DAB-4717-AF4C-8C81AEB28F79}"/>
   </bookViews>

--- a/Flughafen.xlsx
+++ b/Flughafen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Ifsy\Praktikum_Datenbanken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B1F5D-A9DD-4D66-A479-A638AE13B924}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B306E4-31E1-4FF9-AB76-E6C9E141EB33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="570" windowWidth="28800" windowHeight="11655" xr2:uid="{854A1E1C-1DAB-4717-AF4C-8C81AEB28F79}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -438,18 +438,12 @@
     <t xml:space="preserve">Reinigungskraft </t>
   </si>
   <si>
-    <t>Mechaniker</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
     <t>Zoll</t>
   </si>
   <si>
-    <t>Passkontrollbeamter</t>
-  </si>
-  <si>
     <t>07C 25C Centerbahn</t>
   </si>
   <si>
@@ -478,6 +472,12 @@
   </si>
   <si>
     <t>Muenchen</t>
+  </si>
+  <si>
+    <t>Co-Pilot</t>
+  </si>
+  <si>
+    <t>Wartungspersonal</t>
   </si>
 </sst>
 </file>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A6E37-1F20-456E-ACD0-33B7AB6994AF}">
   <dimension ref="A2:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z60" sqref="Z60"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,9 +914,6 @@
       <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
       <c r="P2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1259,7 +1256,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>9</v>
@@ -1376,7 +1373,7 @@
         <v>70</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5">
@@ -1400,13 +1397,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5">
@@ -1430,13 +1427,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5">
@@ -1460,13 +1457,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5">
@@ -1490,13 +1487,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5">
@@ -1520,13 +1517,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5">
@@ -1553,10 +1550,10 @@
         <v>34</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5">
@@ -1580,13 +1577,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5">
@@ -1610,13 +1607,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5">
@@ -1640,13 +1637,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5">
@@ -1666,6 +1663,18 @@
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5">
         <v>22</v>
@@ -1684,6 +1693,18 @@
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5">
         <v>23</v>
@@ -1702,6 +1723,18 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5">
         <v>24</v>
@@ -1720,6 +1753,18 @@
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5">
         <v>25</v>
@@ -1738,6 +1783,18 @@
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5">
         <v>26</v>
@@ -1881,6 +1938,12 @@
       <c r="D35" t="s">
         <v>53</v>
       </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
       <c r="G35">
         <v>17</v>
       </c>
@@ -1892,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M35" s="5">
         <v>2</v>
@@ -1915,6 +1978,12 @@
       <c r="D36" t="s">
         <v>53</v>
       </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
       <c r="G36">
         <v>4</v>
       </c>
@@ -1926,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M36" s="5">
         <v>2</v>
@@ -1949,6 +2018,12 @@
       <c r="D37" t="s">
         <v>53</v>
       </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
       <c r="G37">
         <v>1</v>
       </c>
@@ -1960,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M37" s="5">
         <v>2</v>
@@ -1983,6 +2058,12 @@
       <c r="D38" t="s">
         <v>53</v>
       </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
       <c r="G38">
         <v>18</v>
       </c>
@@ -1994,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M38" s="5">
         <v>1</v>
@@ -2017,6 +2098,12 @@
       <c r="D39" t="s">
         <v>54</v>
       </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
       <c r="G39">
         <v>2</v>
       </c>
@@ -2028,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M39" s="5">
         <v>1</v>
@@ -2051,6 +2138,12 @@
       <c r="D40" t="s">
         <v>54</v>
       </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
       <c r="G40">
         <v>3</v>
       </c>
@@ -2062,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M40" s="5">
         <v>3</v>
@@ -2085,6 +2178,12 @@
       <c r="D41" t="s">
         <v>54</v>
       </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
       <c r="G41">
         <v>6</v>
       </c>
@@ -2096,7 +2195,7 @@
         <v>7</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M41" s="5">
         <v>3</v>
@@ -2106,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -2119,6 +2218,12 @@
       <c r="D42" t="s">
         <v>54</v>
       </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
       <c r="G42">
         <v>5</v>
       </c>
@@ -2130,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -2143,6 +2248,12 @@
       <c r="D43" t="s">
         <v>63</v>
       </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
       <c r="G43">
         <v>19</v>
       </c>
@@ -2154,7 +2265,7 @@
         <v>9</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -2167,6 +2278,12 @@
       <c r="D44" t="s">
         <v>63</v>
       </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
       <c r="G44">
         <v>14</v>
       </c>
@@ -2178,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -2191,6 +2308,12 @@
       <c r="D45" t="s">
         <v>63</v>
       </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
       <c r="G45">
         <v>21</v>
       </c>
@@ -2208,6 +2331,12 @@
       <c r="D46" t="s">
         <v>65</v>
       </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
       <c r="G46">
         <v>13</v>
       </c>
@@ -2225,6 +2354,12 @@
       <c r="D47" t="s">
         <v>65</v>
       </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
       <c r="G47">
         <v>16</v>
       </c>
@@ -2242,6 +2377,12 @@
       <c r="D48" t="s">
         <v>65</v>
       </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
       <c r="G48">
         <v>12</v>
       </c>
@@ -2259,6 +2400,12 @@
       <c r="D49" t="s">
         <v>60</v>
       </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
       <c r="G49">
         <v>9</v>
       </c>
@@ -2276,6 +2423,12 @@
       <c r="D50" t="s">
         <v>60</v>
       </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
       <c r="G50">
         <v>11</v>
       </c>
@@ -2293,6 +2446,12 @@
       <c r="D51" t="s">
         <v>60</v>
       </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
       <c r="G51">
         <v>8</v>
       </c>
@@ -2310,6 +2469,12 @@
       <c r="D52" t="s">
         <v>60</v>
       </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
       <c r="G52">
         <v>7</v>
       </c>
@@ -2327,6 +2492,12 @@
       <c r="D53" t="s">
         <v>68</v>
       </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
       <c r="G53">
         <v>10</v>
       </c>
@@ -2344,6 +2515,12 @@
       <c r="D54" t="s">
         <v>68</v>
       </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
       <c r="G54">
         <v>20</v>
       </c>
@@ -2361,6 +2538,12 @@
       <c r="D55" t="s">
         <v>68</v>
       </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
       <c r="G55">
         <v>15</v>
       </c>
@@ -2397,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E60" s="5">
         <v>2</v>
@@ -2407,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -2416,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E61" s="5">
         <v>2</v>
@@ -2426,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -2435,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E62" s="5">
         <v>2</v>
@@ -2445,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -2454,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -2466,7 +2649,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -2478,7 +2661,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E65" s="5">
         <v>3</v>
@@ -2490,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E66" s="5">
         <v>3</v>

--- a/Flughafen.xlsx
+++ b/Flughafen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Ifsy\Praktikum_Datenbanken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3398b3acb60c5768/Schule/Klasse 12/Leistungskurs/IfSy/Datenbanken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B306E4-31E1-4FF9-AB76-E6C9E141EB33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D81A52-3FB1-455A-A80D-72474DC9B62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="28800" windowHeight="11655" xr2:uid="{854A1E1C-1DAB-4717-AF4C-8C81AEB28F79}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{854A1E1C-1DAB-4717-AF4C-8C81AEB28F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -417,18 +417,12 @@
     <t>Zigel</t>
   </si>
   <si>
-    <t xml:space="preserve">Bezeichnung </t>
-  </si>
-  <si>
     <t>Pilot</t>
   </si>
   <si>
     <t>Stewardess</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluglotse </t>
-  </si>
-  <si>
     <t>Marshaller</t>
   </si>
   <si>
@@ -478,6 +472,261 @@
   </si>
   <si>
     <t>Wartungspersonal</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Kessler</t>
+  </si>
+  <si>
+    <t>Vogt</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Sina</t>
+  </si>
+  <si>
+    <t>Cedric</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Amira</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>Yasmin</t>
+  </si>
+  <si>
+    <t>Hertel</t>
+  </si>
+  <si>
+    <t>Lehmann</t>
+  </si>
+  <si>
+    <t>Rickert</t>
+  </si>
+  <si>
+    <t>Heindrich</t>
+  </si>
+  <si>
+    <t>Moeller</t>
+  </si>
+  <si>
+    <t>Boettcher</t>
+  </si>
+  <si>
+    <t>Steinberger</t>
+  </si>
+  <si>
+    <t>Fritsche</t>
+  </si>
+  <si>
+    <t>Jannis</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>Korbinian</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Niklas</t>
+  </si>
+  <si>
+    <t>Lilli</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Walther</t>
+  </si>
+  <si>
+    <t>Kaltenborn</t>
+  </si>
+  <si>
+    <t>Reuter</t>
+  </si>
+  <si>
+    <t>Hahne</t>
+  </si>
+  <si>
+    <t>Brandner</t>
+  </si>
+  <si>
+    <t>Schaber</t>
+  </si>
+  <si>
+    <t>Roeder</t>
+  </si>
+  <si>
+    <t>Kaufmann</t>
+  </si>
+  <si>
+    <t>Keilholz</t>
+  </si>
+  <si>
+    <t>Dornfelder</t>
+  </si>
+  <si>
+    <t>Fluglotse</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>Maximilian</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Fischer</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>Hoffmann</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Zimmermann</t>
+  </si>
+  <si>
+    <t>Schäfer</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Schröder</t>
+  </si>
+  <si>
+    <t>Neumann</t>
+  </si>
+  <si>
+    <t>Schwarz</t>
+  </si>
+  <si>
+    <t>Zimmer</t>
+  </si>
+  <si>
+    <t>Hartmann</t>
+  </si>
+  <si>
+    <t>Lange</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
+  </si>
+  <si>
+    <t>Werner</t>
   </si>
 </sst>
 </file>
@@ -543,13 +792,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -568,9 +825,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -608,7 +865,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -714,7 +971,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -856,7 +1113,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,29 +1121,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A6E37-1F20-456E-ACD0-33B7AB6994AF}">
-  <dimension ref="A2:U66"/>
+  <dimension ref="A2:X77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -914,26 +1173,26 @@
       <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1</v>
       </c>
@@ -952,27 +1211,27 @@
       <c r="K3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5">
-        <v>1</v>
-      </c>
-      <c r="S3" s="5" t="s">
+      <c r="P3" s="4"/>
+      <c r="T3" s="4">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2</v>
       </c>
@@ -991,27 +1250,27 @@
       <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5">
-        <v>2</v>
-      </c>
-      <c r="R4" s="5">
-        <v>3</v>
-      </c>
-      <c r="S4" s="5" t="s">
+      <c r="P4" s="4"/>
+      <c r="T4" s="4">
+        <v>2</v>
+      </c>
+      <c r="U4" s="4">
+        <v>3</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="W4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="U4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1030,27 +1289,28 @@
       <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5">
-        <v>3</v>
-      </c>
-      <c r="R5" s="5">
-        <v>2</v>
-      </c>
-      <c r="S5" s="5" t="s">
+      <c r="Q5" s="5"/>
+      <c r="T5" s="4">
+        <v>3</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1069,27 +1329,28 @@
       <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5">
-        <v>4</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="T6" s="4">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4">
         <v>7</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="V6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="W6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="U6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1108,27 +1369,28 @@
       <c r="K7" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5">
-        <v>5</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="T7" s="4">
+        <v>5</v>
+      </c>
+      <c r="U7" s="4">
         <v>9</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="V7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="W7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="U7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1147,27 +1409,28 @@
       <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="T8" s="4">
         <v>6</v>
       </c>
-      <c r="R8" s="5">
-        <v>5</v>
-      </c>
-      <c r="S8" s="5" t="s">
+      <c r="U8" s="4">
+        <v>5</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="W8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1186,27 +1449,28 @@
       <c r="K9" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="T9" s="4">
         <v>7</v>
       </c>
-      <c r="R9" s="5">
-        <v>4</v>
-      </c>
-      <c r="S9" s="5" t="s">
+      <c r="U9" s="4">
+        <v>4</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="W9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1225,27 +1489,28 @@
       <c r="K10" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="T10" s="4">
         <v>8</v>
       </c>
-      <c r="R10" s="5">
+      <c r="U10" s="4">
         <v>10</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="V10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="W10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1264,27 +1529,28 @@
       <c r="K11" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="T11" s="4">
         <v>9</v>
       </c>
-      <c r="R11" s="5">
+      <c r="U11" s="4">
         <v>6</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="V11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="W11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="U11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1303,27 +1569,28 @@
       <c r="K12" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="T12" s="4">
         <v>10</v>
       </c>
-      <c r="R12" s="5">
-        <v>8</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="U12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U12" s="4">
+        <v>2</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1342,27 +1609,28 @@
       <c r="K13" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="T13" s="4">
         <v>11</v>
       </c>
-      <c r="R13" s="5">
-        <v>1</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U13" s="4">
+        <v>4</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1375,24 +1643,25 @@
       <c r="E14">
         <v>8</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="T14" s="4">
         <v>12</v>
       </c>
-      <c r="R14" s="5">
-        <v>5</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="U14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14" s="4">
+        <v>5</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1405,24 +1674,25 @@
       <c r="E15">
         <v>9</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="T15" s="4">
         <v>13</v>
       </c>
-      <c r="R15" s="5">
-        <v>6</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15" s="4">
+        <v>5</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1435,24 +1705,25 @@
       <c r="E16">
         <v>11</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="T16" s="4">
         <v>14</v>
       </c>
-      <c r="R16" s="5">
-        <v>2</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U16" s="4">
+        <v>8</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1465,24 +1736,25 @@
       <c r="E17">
         <v>9</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="T17" s="4">
         <v>15</v>
       </c>
-      <c r="R17" s="5">
-        <v>3</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="U17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U17" s="4">
+        <v>8</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1495,24 +1767,25 @@
       <c r="E18">
         <v>8</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="T18" s="4">
         <v>16</v>
       </c>
-      <c r="R18" s="5">
-        <v>9</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1525,24 +1798,25 @@
       <c r="E19">
         <v>11</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="T19" s="4">
         <v>17</v>
       </c>
-      <c r="R19" s="5">
-        <v>4</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="U19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U19" s="4">
+        <v>5</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>18</v>
       </c>
@@ -1555,24 +1829,25 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="T20" s="4">
         <v>18</v>
       </c>
-      <c r="R20" s="5">
-        <v>10</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="U20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U20" s="4">
+        <v>6</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1585,24 +1860,25 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5">
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="T21" s="4">
         <v>19</v>
       </c>
-      <c r="R21" s="5">
-        <v>7</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="U21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U21" s="4">
+        <v>2</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>20</v>
       </c>
@@ -1615,24 +1891,25 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5">
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="T22" s="4">
         <v>20</v>
       </c>
-      <c r="R22" s="5">
-        <v>8</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="U22" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U22" s="4">
+        <v>3</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="X22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>21</v>
       </c>
@@ -1645,24 +1922,25 @@
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5">
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="T23" s="4">
         <v>21</v>
       </c>
-      <c r="R23" s="5">
-        <v>7</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="U23" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U23" s="4">
+        <v>9</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="X23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>22</v>
       </c>
@@ -1675,24 +1953,25 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5">
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="T24" s="4">
         <v>22</v>
       </c>
-      <c r="R24" s="5">
-        <v>1</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="U24" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U24" s="4">
+        <v>4</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>23</v>
       </c>
@@ -1705,24 +1984,25 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5">
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="T25" s="4">
         <v>23</v>
       </c>
-      <c r="R25" s="5">
+      <c r="U25" s="4">
         <v>10</v>
       </c>
-      <c r="S25" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="U25" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>24</v>
       </c>
@@ -1735,24 +2015,25 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5">
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="T26" s="4">
         <v>24</v>
       </c>
-      <c r="R26" s="5">
-        <v>9</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="U26" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U26" s="4">
+        <v>7</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="X26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>25</v>
       </c>
@@ -1765,24 +2046,25 @@
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5">
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="T27" s="4">
         <v>25</v>
       </c>
-      <c r="R27" s="5">
-        <v>5</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="U27" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U27" s="4">
+        <v>2</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="X27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>26</v>
       </c>
@@ -1795,222 +2077,209 @@
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5">
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="T28" s="4">
         <v>26</v>
       </c>
-      <c r="R28" s="5">
-        <v>2</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="U28" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5">
+      <c r="U28" s="4">
+        <v>4</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="X28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="T29" s="4">
         <v>27</v>
       </c>
-      <c r="R29" s="5">
-        <v>3</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="U29" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5">
+      <c r="U29" s="4">
+        <v>5</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="X29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="T30" s="4">
         <v>28</v>
       </c>
-      <c r="R30" s="5">
+      <c r="U30" s="4">
+        <v>5</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="X30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="P31" s="4"/>
+      <c r="T31" s="4">
+        <v>29</v>
+      </c>
+      <c r="U31" s="4">
         <v>8</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="U30" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5">
-        <v>29</v>
-      </c>
-      <c r="R31" s="5">
-        <v>6</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="U31" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5">
+      <c r="V31" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="P32" s="4"/>
+      <c r="T32" s="4">
         <v>30</v>
       </c>
-      <c r="R32" s="5">
-        <v>4</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="U32" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="U32" s="4">
+        <v>8</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="P33" s="4"/>
+      <c r="T33" s="4">
+        <v>31</v>
+      </c>
+      <c r="U33" s="4">
+        <v>7</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="P34" s="4"/>
+      <c r="T34" s="4">
+        <v>32</v>
+      </c>
+      <c r="U34" s="4">
+        <v>1</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="X34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="P35" s="4"/>
+      <c r="T35" s="4">
+        <v>33</v>
+      </c>
+      <c r="U35" s="4">
+        <v>10</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>16</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F36" t="s">
         <v>17</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G36" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4">
+        <v>34</v>
+      </c>
+      <c r="U36" s="4">
         <v>9</v>
       </c>
-      <c r="R34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35">
-        <v>7</v>
-      </c>
-      <c r="G35">
-        <v>17</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5">
-        <v>1</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="M35" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5">
-        <v>1</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>7</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5">
-        <v>2</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="M36" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5">
-        <v>2</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="X36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>61</v>
@@ -2019,38 +2288,56 @@
         <v>53</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5">
-        <v>3</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M37" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5">
-        <v>3</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M37" s="4">
+        <v>2</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4">
+        <v>35</v>
+      </c>
+      <c r="U37" s="4">
+        <v>5</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="X37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
@@ -2059,118 +2346,163 @@
         <v>53</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>7</v>
       </c>
       <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4">
+        <v>2</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M38" s="4">
+        <v>2</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="T38" s="4">
+        <v>36</v>
+      </c>
+      <c r="U38" s="4">
+        <v>2</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X38" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M39" s="4">
+        <v>2</v>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39" t="s">
+        <v>131</v>
+      </c>
+      <c r="T39" s="4">
+        <v>37</v>
+      </c>
+      <c r="U39" s="4">
+        <v>3</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
         <v>18</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5">
-        <v>4</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="M38" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5">
-        <v>4</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5">
-        <v>5</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M39" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5">
-        <v>5</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5">
-        <v>6</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M40" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5">
-        <v>6</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4">
+        <v>4</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T40" s="4">
+        <v>38</v>
+      </c>
+      <c r="U40" s="4">
+        <v>8</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="X40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
@@ -2179,38 +2511,53 @@
         <v>54</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41">
         <v>4</v>
       </c>
       <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
+        <v>5</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4">
+        <v>4</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T41" s="4">
+        <v>39</v>
+      </c>
+      <c r="U41" s="4">
         <v>6</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5">
-        <v>7</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="M41" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5">
-        <v>7</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="X41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>62</v>
@@ -2225,82 +2572,147 @@
         <v>5</v>
       </c>
       <c r="G42">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4">
+        <v>6</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M42" s="4">
+        <v>3</v>
+      </c>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4">
+        <v>5</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="T42" s="4">
+        <v>40</v>
+      </c>
+      <c r="U42" s="4">
+        <v>2</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="X42" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4">
+        <v>7</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M43" s="4">
+        <v>3</v>
+      </c>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4">
+        <v>6</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T43" s="4">
+        <v>41</v>
+      </c>
+      <c r="U43" s="4">
+        <v>4</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="X43" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B44">
         <v>8</v>
       </c>
-      <c r="S42" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4">
+        <v>7</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T44" s="4">
+        <v>42</v>
+      </c>
+      <c r="U44" s="4">
+        <v>5</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="X44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B45">
         <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>19</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5">
-        <v>9</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>14</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5">
-        <v>10</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
@@ -2309,67 +2721,130 @@
         <v>63</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
+        <v>19</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>8</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T45" s="4">
+        <v>43</v>
+      </c>
+      <c r="U45" s="4">
+        <v>5</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="X45" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>9</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="T46" s="4">
+        <v>44</v>
+      </c>
+      <c r="U46" s="4">
+        <v>8</v>
+      </c>
+      <c r="V46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="W46" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
         <v>21</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="Q47" s="4">
+        <v>10</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T47" s="4">
+        <v>45</v>
+      </c>
+      <c r="U47" s="4">
+        <v>4</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X47" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B48">
         <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46">
-        <v>13</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47">
-        <v>16</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -2378,67 +2853,112 @@
         <v>65</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T48" s="4">
+        <v>46</v>
+      </c>
+      <c r="U48" s="4">
+        <v>9</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="X48" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T49" s="4">
+        <v>47</v>
+      </c>
+      <c r="U49" s="4">
+        <v>2</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="X49" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
         <v>12</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49">
+      <c r="T50" s="4">
+        <v>48</v>
+      </c>
+      <c r="U50" s="4">
+        <v>8</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X50" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B51">
         <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>7</v>
-      </c>
-      <c r="G49">
-        <v>9</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
-      <c r="G50">
-        <v>11</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
@@ -2447,21 +2967,36 @@
         <v>60</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G51">
-        <v>8</v>
-      </c>
-      <c r="H51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="T51" s="4">
+        <v>49</v>
+      </c>
+      <c r="U51" s="4">
+        <v>1</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="X51" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
@@ -2470,67 +3005,112 @@
         <v>60</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" s="4">
+        <v>50</v>
+      </c>
+      <c r="U52" s="4">
+        <v>4</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="X52" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T53" s="4">
+        <v>51</v>
+      </c>
+      <c r="U53" s="4">
+        <v>5</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X53" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
         <v>7</v>
       </c>
-      <c r="G52">
+      <c r="G54">
         <v>7</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53">
+      <c r="T54" s="4">
+        <v>52</v>
+      </c>
+      <c r="U54" s="4">
+        <v>3</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="X54" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B55">
         <v>19</v>
-      </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53">
-        <v>7</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53">
-        <v>10</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>20</v>
-      </c>
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="G54">
-        <v>20</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>21</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
@@ -2542,141 +3122,568 @@
         <v>7</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T55" s="4">
+        <v>53</v>
+      </c>
+      <c r="U55" s="4">
+        <v>7</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="X55" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>20</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T56" s="4">
+        <v>54</v>
+      </c>
+      <c r="U56" s="4">
+        <v>6</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="X56" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>15</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+      <c r="T57" s="4">
+        <v>55</v>
+      </c>
+      <c r="U57" s="4">
+        <v>2</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="W57" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="X57" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T58" s="4">
+        <v>56</v>
+      </c>
+      <c r="U58" s="4">
+        <v>4</v>
+      </c>
+      <c r="V58" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="W58" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="X58" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T59" s="4">
+        <v>57</v>
+      </c>
+      <c r="U59" s="4">
+        <v>5</v>
+      </c>
+      <c r="V59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="W59" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="X59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T60" s="4">
+        <v>58</v>
+      </c>
+      <c r="U60" s="4">
+        <v>5</v>
+      </c>
+      <c r="V60" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="W60" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="X60" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T61" s="4">
+        <v>59</v>
+      </c>
+      <c r="U61" s="4">
+        <v>8</v>
+      </c>
+      <c r="V61" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="W61" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="X61" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T62" s="4">
+        <v>60</v>
+      </c>
+      <c r="U62" s="4">
+        <v>10</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="W62" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="X62" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="L63" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="T63" s="4">
+        <v>61</v>
+      </c>
+      <c r="U63" s="4">
+        <v>5</v>
+      </c>
+      <c r="V63" t="s">
+        <v>170</v>
+      </c>
+      <c r="W63" t="s">
+        <v>180</v>
+      </c>
+      <c r="X63" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4">
+        <v>1</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="T64" s="4">
+        <v>62</v>
+      </c>
+      <c r="U64" s="4">
+        <v>6</v>
+      </c>
+      <c r="V64" t="s">
+        <v>171</v>
+      </c>
+      <c r="W64" t="s">
+        <v>181</v>
+      </c>
+      <c r="X64" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4">
+        <v>2</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4">
+        <v>2</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T65" s="4">
+        <v>63</v>
+      </c>
+      <c r="U65" s="4">
+        <v>4</v>
+      </c>
+      <c r="V65" t="s">
+        <v>172</v>
+      </c>
+      <c r="W65" t="s">
+        <v>182</v>
+      </c>
+      <c r="X65" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="5">
-        <v>2</v>
-      </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5">
-        <v>1</v>
-      </c>
-      <c r="L60" s="5" t="s">
+      <c r="E66" s="4">
+        <v>2</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4">
+        <v>3</v>
+      </c>
+      <c r="L66" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5">
-        <v>2</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="T66" s="4">
+        <v>64</v>
+      </c>
+      <c r="U66" s="4">
+        <v>1</v>
+      </c>
+      <c r="V66" t="s">
+        <v>173</v>
+      </c>
+      <c r="W66" t="s">
+        <v>183</v>
+      </c>
+      <c r="X66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4">
+        <v>4</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="5">
-        <v>2</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5">
-        <v>2</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5">
-        <v>3</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>4</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T67" s="4">
+        <v>65</v>
+      </c>
+      <c r="U67" s="4">
+        <v>3</v>
+      </c>
+      <c r="V67" t="s">
+        <v>174</v>
+      </c>
+      <c r="W67" t="s">
+        <v>184</v>
+      </c>
+      <c r="X67" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4">
+        <v>5</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="5">
-        <v>2</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5">
-        <v>3</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5">
-        <v>4</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>5</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="T68" s="4">
+        <v>66</v>
+      </c>
+      <c r="U68" s="4">
+        <v>2</v>
+      </c>
+      <c r="V68" t="s">
+        <v>175</v>
+      </c>
+      <c r="W68" t="s">
+        <v>185</v>
+      </c>
+      <c r="X68" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4">
+        <v>6</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5">
-        <v>5</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="E69" s="4">
+        <v>3</v>
+      </c>
+      <c r="T69" s="4">
+        <v>67</v>
+      </c>
+      <c r="U69" s="4">
+        <v>7</v>
+      </c>
+      <c r="V69" t="s">
+        <v>176</v>
+      </c>
+      <c r="W69" t="s">
+        <v>186</v>
+      </c>
+      <c r="X69" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4">
+        <v>7</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5">
-        <v>6</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="5">
-        <v>3</v>
+      <c r="E70" s="4">
+        <v>3</v>
+      </c>
+      <c r="T70" s="4">
+        <v>68</v>
+      </c>
+      <c r="U70" s="4">
+        <v>9</v>
+      </c>
+      <c r="V70" t="s">
+        <v>177</v>
+      </c>
+      <c r="W70" t="s">
+        <v>187</v>
+      </c>
+      <c r="X70" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T71" s="4">
+        <v>69</v>
+      </c>
+      <c r="U71" s="4">
+        <v>10</v>
+      </c>
+      <c r="V71" t="s">
+        <v>178</v>
+      </c>
+      <c r="W71" t="s">
+        <v>188</v>
+      </c>
+      <c r="X71" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T72" s="4">
+        <v>70</v>
+      </c>
+      <c r="U72" s="4">
+        <v>8</v>
+      </c>
+      <c r="V72" t="s">
+        <v>179</v>
+      </c>
+      <c r="W72" t="s">
+        <v>189</v>
+      </c>
+      <c r="X72" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T73" s="4">
+        <v>71</v>
+      </c>
+      <c r="U73" s="4">
+        <v>2</v>
+      </c>
+      <c r="V73" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="W73" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="X73" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T74" s="4">
+        <v>72</v>
+      </c>
+      <c r="U74" s="4">
+        <v>4</v>
+      </c>
+      <c r="V74" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="W74" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="X74" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T75" s="4">
+        <v>73</v>
+      </c>
+      <c r="U75" s="4">
+        <v>5</v>
+      </c>
+      <c r="V75" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="W75" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="X75" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T76" s="4">
+        <v>74</v>
+      </c>
+      <c r="U76" s="4">
+        <v>5</v>
+      </c>
+      <c r="V76" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="W76" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="X76" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T77" s="4">
+        <v>75</v>
+      </c>
+      <c r="U77" s="4">
+        <v>8</v>
+      </c>
+      <c r="V77" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="W77" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="X77" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Flughafen.xlsx
+++ b/Flughafen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3398b3acb60c5768/Schule/Klasse 12/Leistungskurs/IfSy/Datenbanken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D81A52-3FB1-455A-A80D-72474DC9B62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{73D81A52-3FB1-455A-A80D-72474DC9B62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7C4F4F0-DDE9-40E7-B28A-0743102F03CF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{854A1E1C-1DAB-4717-AF4C-8C81AEB28F79}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="250">
   <si>
     <t>Name</t>
   </si>
@@ -111,9 +111,6 @@
     <t>StandortID</t>
   </si>
   <si>
-    <t>Ortsname</t>
-  </si>
-  <si>
     <t>Lufthansa</t>
   </si>
   <si>
@@ -727,13 +724,64 @@
   </si>
   <si>
     <t>Werner</t>
+  </si>
+  <si>
+    <t>08L 26R – Ostbahn</t>
+  </si>
+  <si>
+    <t>08R 26L – Westbahn</t>
+  </si>
+  <si>
+    <t>05R 23L Querbahn</t>
+  </si>
+  <si>
+    <t>15L 33R Hauptbahn</t>
+  </si>
+  <si>
+    <t>1h 0min</t>
+  </si>
+  <si>
+    <t>295km</t>
+  </si>
+  <si>
+    <t>Leipzig – Hamburg</t>
+  </si>
+  <si>
+    <t>Hamburg – Leipzig</t>
+  </si>
+  <si>
+    <t>1h 10min</t>
+  </si>
+  <si>
+    <t>330km</t>
+  </si>
+  <si>
+    <t>Leipzig – Berlin</t>
+  </si>
+  <si>
+    <t>Berlin – Leipzig</t>
+  </si>
+  <si>
+    <t>1h 15min</t>
+  </si>
+  <si>
+    <t>393km</t>
+  </si>
+  <si>
+    <t>Hamburg – Frankfurt</t>
+  </si>
+  <si>
+    <t>1h 20min</t>
+  </si>
+  <si>
+    <t>Frankfurt – Hamburg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,13 +819,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -789,10 +851,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -804,11 +867,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1121,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A6E37-1F20-456E-ACD0-33B7AB6994AF}">
-  <dimension ref="A2:X77"/>
+  <dimension ref="A2:X89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1132,7 +1199,7 @@
     <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.9296875" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
@@ -1141,6 +1208,7 @@
     <col min="15" max="15" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
     <col min="22" max="22" width="13" customWidth="1"/>
     <col min="23" max="23" width="12.6640625" customWidth="1"/>
   </cols>
@@ -1180,7 +1248,7 @@
         <v>8</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>0</v>
@@ -1197,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -1209,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="4"/>
       <c r="T3" s="4">
@@ -1222,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="V3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="X3" s="4">
         <v>1</v>
@@ -1236,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>70</v>
@@ -1248,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="4"/>
       <c r="T4" s="4">
@@ -1261,10 +1329,10 @@
         <v>3</v>
       </c>
       <c r="V4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="X4" s="4">
         <v>1</v>
@@ -1275,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -1287,10 +1355,10 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1301,10 +1369,10 @@
         <v>2</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="X5" s="4">
         <v>1</v>
@@ -1315,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>40</v>
@@ -1327,13 +1395,13 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
       <c r="T6" s="4">
         <v>4</v>
       </c>
@@ -1341,10 +1409,10 @@
         <v>7</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="X6" s="4">
         <v>1</v>
@@ -1355,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -1367,13 +1435,13 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
       <c r="T7" s="4">
         <v>5</v>
       </c>
@@ -1381,10 +1449,10 @@
         <v>9</v>
       </c>
       <c r="V7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="X7" s="4">
         <v>1</v>
@@ -1395,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1407,13 +1475,13 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
       <c r="T8" s="4">
         <v>6</v>
       </c>
@@ -1421,10 +1489,10 @@
         <v>5</v>
       </c>
       <c r="V8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="X8" s="4">
         <v>1</v>
@@ -1435,7 +1503,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -1447,13 +1515,13 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
       <c r="T9" s="4">
         <v>7</v>
       </c>
@@ -1461,10 +1529,10 @@
         <v>4</v>
       </c>
       <c r="V9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="X9" s="4">
         <v>1</v>
@@ -1475,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -1487,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
       <c r="T10" s="4">
         <v>8</v>
       </c>
@@ -1501,10 +1569,10 @@
         <v>10</v>
       </c>
       <c r="V10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="X10" s="4">
         <v>1</v>
@@ -1515,7 +1583,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -1527,13 +1595,13 @@
         <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
       <c r="T11" s="4">
         <v>9</v>
       </c>
@@ -1541,10 +1609,10 @@
         <v>6</v>
       </c>
       <c r="V11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="X11" s="4">
         <v>1</v>
@@ -1555,7 +1623,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -1567,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
       <c r="T12" s="4">
         <v>10</v>
       </c>
@@ -1581,10 +1649,10 @@
         <v>2</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X12" s="4">
         <v>1</v>
@@ -1595,7 +1663,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>74</v>
@@ -1607,13 +1675,13 @@
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
       <c r="T13" s="4">
         <v>11</v>
       </c>
@@ -1621,10 +1689,10 @@
         <v>4</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X13" s="4">
         <v>1</v>
@@ -1635,7 +1703,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>70</v>
@@ -1643,8 +1711,8 @@
       <c r="E14">
         <v>8</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
       <c r="T14" s="4">
         <v>12</v>
       </c>
@@ -1652,10 +1720,10 @@
         <v>5</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X14" s="4">
         <v>1</v>
@@ -1666,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>55</v>
@@ -1674,8 +1742,8 @@
       <c r="E15">
         <v>9</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
       <c r="T15" s="4">
         <v>13</v>
       </c>
@@ -1683,10 +1751,10 @@
         <v>5</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X15" s="4">
         <v>1</v>
@@ -1697,7 +1765,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>68</v>
@@ -1705,8 +1773,8 @@
       <c r="E16">
         <v>11</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
       <c r="T16" s="4">
         <v>14</v>
       </c>
@@ -1714,10 +1782,10 @@
         <v>8</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X16" s="4">
         <v>1</v>
@@ -1728,7 +1796,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -1736,8 +1804,8 @@
       <c r="E17">
         <v>9</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
       <c r="T17" s="4">
         <v>15</v>
       </c>
@@ -1745,10 +1813,10 @@
         <v>8</v>
       </c>
       <c r="V17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W17" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="X17" s="4">
         <v>1</v>
@@ -1759,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -1767,8 +1835,8 @@
       <c r="E18">
         <v>8</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="T18" s="4">
         <v>16</v>
       </c>
@@ -1776,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="V18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W18" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="X18" s="4">
         <v>2</v>
@@ -1790,7 +1858,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>50</v>
@@ -1798,8 +1866,8 @@
       <c r="E19">
         <v>11</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
       <c r="T19" s="4">
         <v>17</v>
       </c>
@@ -1807,10 +1875,10 @@
         <v>5</v>
       </c>
       <c r="V19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W19" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="X19" s="4">
         <v>2</v>
@@ -1821,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>50</v>
@@ -1829,8 +1897,8 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
       <c r="T20" s="4">
         <v>18</v>
       </c>
@@ -1838,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="V20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W20" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="X20" s="4">
         <v>2</v>
@@ -1852,7 +1920,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>40</v>
@@ -1869,10 +1937,10 @@
         <v>2</v>
       </c>
       <c r="V21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W21" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="X21" s="4">
         <v>2</v>
@@ -1883,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>32</v>
@@ -1900,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="V22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W22" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="X22" s="4">
         <v>2</v>
@@ -1914,7 +1982,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>29</v>
@@ -1931,10 +1999,10 @@
         <v>9</v>
       </c>
       <c r="V23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="W23" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="X23" s="4">
         <v>2</v>
@@ -1945,7 +2013,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>90</v>
@@ -1962,10 +2030,10 @@
         <v>4</v>
       </c>
       <c r="V24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="W24" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="X24" s="4">
         <v>2</v>
@@ -1976,7 +2044,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>50</v>
@@ -1993,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="V25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W25" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="X25" s="4">
         <v>2</v>
@@ -2007,7 +2075,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>44</v>
@@ -2024,10 +2092,10 @@
         <v>7</v>
       </c>
       <c r="V26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W26" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="X26" s="4">
         <v>2</v>
@@ -2038,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>37</v>
@@ -2046,6 +2114,7 @@
       <c r="E27">
         <v>4</v>
       </c>
+      <c r="K27" s="10"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="T27" s="4">
@@ -2055,10 +2124,10 @@
         <v>2</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X27" s="4">
         <v>2</v>
@@ -2069,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -2086,10 +2155,10 @@
         <v>4</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X28" s="4">
         <v>2</v>
@@ -2105,10 +2174,10 @@
         <v>5</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X29" s="4">
         <v>2</v>
@@ -2124,10 +2193,10 @@
         <v>5</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W30" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X30" s="4">
         <v>2</v>
@@ -2142,10 +2211,10 @@
         <v>8</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X31" s="4">
         <v>2</v>
@@ -2160,10 +2229,10 @@
         <v>8</v>
       </c>
       <c r="V32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="W32" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="X32" s="4">
         <v>2</v>
@@ -2178,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="V33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W33" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="X33" s="4">
         <v>3</v>
@@ -2189,312 +2258,121 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="P34" s="4"/>
-      <c r="T34" s="4">
-        <v>32</v>
-      </c>
-      <c r="U34" s="4">
-        <v>1</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="X34" s="4">
-        <v>3</v>
-      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="P35" s="4"/>
-      <c r="T35" s="4">
-        <v>33</v>
-      </c>
-      <c r="U35" s="4">
-        <v>10</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="X35" s="4">
-        <v>3</v>
-      </c>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4">
-        <v>34</v>
-      </c>
-      <c r="U36" s="4">
-        <v>9</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="X36" s="4">
-        <v>3</v>
-      </c>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-      <c r="G37">
-        <v>17</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4">
-        <v>1</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M37" s="4">
-        <v>2</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4">
-        <v>35</v>
-      </c>
-      <c r="U37" s="4">
-        <v>5</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="X37" s="4">
-        <v>3</v>
-      </c>
+      <c r="P37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4">
-        <v>2</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M38" s="4">
-        <v>2</v>
-      </c>
       <c r="P38" s="4"/>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="T38" s="4">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="X38" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4">
-        <v>3</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M39" s="4">
-        <v>2</v>
-      </c>
       <c r="P39" s="4"/>
-      <c r="Q39">
-        <v>2</v>
-      </c>
-      <c r="R39" t="s">
-        <v>131</v>
-      </c>
       <c r="T39" s="4">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="U39" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="X39" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B40">
-        <v>4</v>
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>7</v>
-      </c>
-      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4">
-        <v>4</v>
+      <c r="K40" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M40" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="P40" s="4"/>
-      <c r="Q40">
-        <v>3</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
       <c r="T40" s="4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U40" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="X40" s="4">
         <v>3</v>
@@ -2502,54 +2380,57 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>17</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M41" s="4">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="S41" s="4"/>
       <c r="T41" s="4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U41" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="X41" s="4">
         <v>3</v>
@@ -2557,54 +2438,54 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M42" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42" s="4"/>
-      <c r="Q42" s="4">
-        <v>5</v>
+      <c r="Q42">
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="T42" s="4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U42" s="4">
         <v>2</v>
       </c>
-      <c r="V42" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="W42" s="7" t="s">
-        <v>220</v>
+      <c r="V42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="X42" s="4">
         <v>3</v>
@@ -2612,54 +2493,54 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E43">
-        <v>7</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M43" s="4">
+        <v>2</v>
+      </c>
+      <c r="P43" s="4"/>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43" t="s">
+        <v>130</v>
+      </c>
+      <c r="T43" s="4">
+        <v>37</v>
+      </c>
+      <c r="U43" s="4">
         <v>3</v>
       </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4">
-        <v>6</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="T43" s="4">
-        <v>41</v>
-      </c>
-      <c r="U43" s="4">
-        <v>4</v>
-      </c>
-      <c r="V43" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="W43" s="7" t="s">
-        <v>221</v>
+      <c r="V43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="X43" s="4">
         <v>3</v>
@@ -2667,44 +2548,54 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>18</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4">
+        <v>4</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T44" s="4">
+        <v>38</v>
+      </c>
+      <c r="U44" s="4">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <v>5</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4">
-        <v>7</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="T44" s="4">
-        <v>42</v>
-      </c>
-      <c r="U44" s="4">
-        <v>5</v>
-      </c>
-      <c r="V44" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="W44" s="7" t="s">
-        <v>222</v>
+      <c r="V44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="X44" s="4">
         <v>3</v>
@@ -2712,43 +2603,54 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4">
+        <v>5</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4"/>
       <c r="Q45" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T45" s="4">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U45" s="4">
-        <v>5</v>
-      </c>
-      <c r="V45" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="W45" s="7" t="s">
-        <v>223</v>
+        <v>6</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="X45" s="4">
         <v>3</v>
@@ -2756,43 +2658,54 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4">
+        <v>6</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M46" s="4">
+        <v>3</v>
+      </c>
+      <c r="P46" s="4"/>
       <c r="Q46" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T46" s="4">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U46" s="4">
-        <v>8</v>
-      </c>
-      <c r="V46" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="W46" s="7" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="V46" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W46" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="X46" s="4">
         <v>3</v>
@@ -2800,43 +2713,54 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B47">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
+        <v>7</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M47" s="4">
         <v>3</v>
       </c>
-      <c r="G47">
-        <v>21</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="P47" s="4"/>
       <c r="Q47" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="T47" s="4">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U47" s="4">
         <v>4</v>
       </c>
-      <c r="V47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="W47" s="4" t="s">
-        <v>129</v>
+      <c r="V47" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="X47" s="4">
         <v>3</v>
@@ -2844,189 +2768,250 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B48">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="K48" s="4">
+        <v>8</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M48" s="4">
+        <v>5</v>
+      </c>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4">
+        <v>7</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="T48" s="4">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U48" s="4">
-        <v>9</v>
-      </c>
-      <c r="V48" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>152</v>
+        <v>5</v>
+      </c>
+      <c r="V48" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="W48" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="X48" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B49">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="K49" s="4">
+        <v>9</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M49" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>8</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="T49" s="4">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U49" s="4">
-        <v>2</v>
-      </c>
-      <c r="V49" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="W49" s="4" t="s">
-        <v>153</v>
+        <v>5</v>
+      </c>
+      <c r="V49" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="X49" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>14</v>
       </c>
-      <c r="C50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50">
-        <v>12</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="K50" s="4">
+        <v>10</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M50" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>9</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="T50" s="4">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U50" s="4">
         <v>8</v>
       </c>
-      <c r="V50" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="W50" s="4" t="s">
-        <v>162</v>
+      <c r="V50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W50" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="X50" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B51">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="K51" s="4">
+        <v>11</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="M51" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>10</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="T51" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U51" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="X51" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B52">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T52" s="4">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U52" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="X52" s="4">
         <v>4</v>
@@ -3034,37 +3019,37 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B53">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T53" s="4">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="U53" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="X53" s="4">
         <v>4</v>
@@ -3072,37 +3057,37 @@
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B54">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T54" s="4">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U54" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X54" s="4">
         <v>4</v>
@@ -3110,37 +3095,37 @@
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B55">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
         <v>7</v>
       </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
       <c r="G55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="T55" s="4">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U55" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="X55" s="4">
         <v>4</v>
@@ -3148,37 +3133,37 @@
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B56">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
         <v>6</v>
       </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
       <c r="G56">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="T56" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U56" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="X56" s="4">
         <v>4</v>
@@ -3186,503 +3171,975 @@
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B57">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T57" s="4">
+        <v>51</v>
+      </c>
+      <c r="U57" s="4">
+        <v>5</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="X57" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T58" s="4">
+        <v>52</v>
+      </c>
+      <c r="U58" s="4">
+        <v>3</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X58" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T59" s="4">
+        <v>53</v>
+      </c>
+      <c r="U59" s="4">
+        <v>7</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="X59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>20</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T60" s="4">
+        <v>54</v>
+      </c>
+      <c r="U60" s="4">
+        <v>6</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="X60" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B61">
         <v>21</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
         <v>67</v>
       </c>
-      <c r="D57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57">
+      <c r="E61">
         <v>7</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
         <v>15</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T57" s="4">
+      <c r="H61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T61" s="4">
         <v>55</v>
       </c>
-      <c r="U57" s="4">
-        <v>2</v>
-      </c>
-      <c r="V57" s="6" t="s">
+      <c r="U61" s="4">
+        <v>2</v>
+      </c>
+      <c r="V61" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="W61" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="X61" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="T62" s="4">
+        <v>56</v>
+      </c>
+      <c r="U62" s="4">
+        <v>4</v>
+      </c>
+      <c r="V62" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="W57" s="6" t="s">
+      <c r="W62" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="X57" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T58" s="4">
-        <v>56</v>
-      </c>
-      <c r="U58" s="4">
-        <v>4</v>
-      </c>
-      <c r="V58" s="6" t="s">
+      <c r="X62" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B63">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="T63" s="4">
+        <v>57</v>
+      </c>
+      <c r="U63" s="4">
+        <v>5</v>
+      </c>
+      <c r="V63" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="W58" s="6" t="s">
+      <c r="W63" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="X58" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T59" s="4">
-        <v>57</v>
-      </c>
-      <c r="U59" s="4">
-        <v>5</v>
-      </c>
-      <c r="V59" s="6" t="s">
+      <c r="X63" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B64">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="4"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="4"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B66">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="4"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B67">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="4"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B68">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="4"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B69">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="10">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B70">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="4"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B71">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D71" t="s">
+        <v>246</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="T71" s="4">
+        <v>58</v>
+      </c>
+      <c r="U71" s="4">
+        <v>5</v>
+      </c>
+      <c r="V71" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="W59" s="6" t="s">
+      <c r="W71" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="X59" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T60" s="4">
-        <v>58</v>
-      </c>
-      <c r="U60" s="4">
-        <v>5</v>
-      </c>
-      <c r="V60" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="W60" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="X60" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T61" s="4">
+      <c r="X71" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B72">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T72" s="4">
         <v>59</v>
-      </c>
-      <c r="U61" s="4">
-        <v>8</v>
-      </c>
-      <c r="V61" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="W61" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="X61" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T62" s="4">
-        <v>60</v>
-      </c>
-      <c r="U62" s="4">
-        <v>10</v>
-      </c>
-      <c r="V62" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="W62" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="X62" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T63" s="4">
-        <v>61</v>
-      </c>
-      <c r="U63" s="4">
-        <v>5</v>
-      </c>
-      <c r="V63" t="s">
-        <v>170</v>
-      </c>
-      <c r="W63" t="s">
-        <v>180</v>
-      </c>
-      <c r="X63" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4">
-        <v>1</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E64" s="4">
-        <v>2</v>
-      </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4">
-        <v>1</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="T64" s="4">
-        <v>62</v>
-      </c>
-      <c r="U64" s="4">
-        <v>6</v>
-      </c>
-      <c r="V64" t="s">
-        <v>171</v>
-      </c>
-      <c r="W64" t="s">
-        <v>181</v>
-      </c>
-      <c r="X64" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4">
-        <v>2</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="4">
-        <v>2</v>
-      </c>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4">
-        <v>2</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="T65" s="4">
-        <v>63</v>
-      </c>
-      <c r="U65" s="4">
-        <v>4</v>
-      </c>
-      <c r="V65" t="s">
-        <v>172</v>
-      </c>
-      <c r="W65" t="s">
-        <v>182</v>
-      </c>
-      <c r="X65" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4">
-        <v>3</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E66" s="4">
-        <v>2</v>
-      </c>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4">
-        <v>3</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="T66" s="4">
-        <v>64</v>
-      </c>
-      <c r="U66" s="4">
-        <v>1</v>
-      </c>
-      <c r="V66" t="s">
-        <v>173</v>
-      </c>
-      <c r="W66" t="s">
-        <v>183</v>
-      </c>
-      <c r="X66" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4">
-        <v>4</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="K67" s="4">
-        <v>4</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="T67" s="4">
-        <v>65</v>
-      </c>
-      <c r="U67" s="4">
-        <v>3</v>
-      </c>
-      <c r="V67" t="s">
-        <v>174</v>
-      </c>
-      <c r="W67" t="s">
-        <v>184</v>
-      </c>
-      <c r="X67" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4">
-        <v>5</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="K68" s="4">
-        <v>5</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="T68" s="4">
-        <v>66</v>
-      </c>
-      <c r="U68" s="4">
-        <v>2</v>
-      </c>
-      <c r="V68" t="s">
-        <v>175</v>
-      </c>
-      <c r="W68" t="s">
-        <v>185</v>
-      </c>
-      <c r="X68" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4">
-        <v>6</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E69" s="4">
-        <v>3</v>
-      </c>
-      <c r="T69" s="4">
-        <v>67</v>
-      </c>
-      <c r="U69" s="4">
-        <v>7</v>
-      </c>
-      <c r="V69" t="s">
-        <v>176</v>
-      </c>
-      <c r="W69" t="s">
-        <v>186</v>
-      </c>
-      <c r="X69" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4">
-        <v>7</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" s="4">
-        <v>3</v>
-      </c>
-      <c r="T70" s="4">
-        <v>68</v>
-      </c>
-      <c r="U70" s="4">
-        <v>9</v>
-      </c>
-      <c r="V70" t="s">
-        <v>177</v>
-      </c>
-      <c r="W70" t="s">
-        <v>187</v>
-      </c>
-      <c r="X70" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T71" s="4">
-        <v>69</v>
-      </c>
-      <c r="U71" s="4">
-        <v>10</v>
-      </c>
-      <c r="V71" t="s">
-        <v>178</v>
-      </c>
-      <c r="W71" t="s">
-        <v>188</v>
-      </c>
-      <c r="X71" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T72" s="4">
-        <v>70</v>
       </c>
       <c r="U72" s="4">
         <v>8</v>
       </c>
-      <c r="V72" t="s">
-        <v>179</v>
-      </c>
-      <c r="W72" t="s">
-        <v>189</v>
+      <c r="V72" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="W72" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="X72" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T73" s="4">
-        <v>71</v>
-      </c>
-      <c r="U73" s="4">
-        <v>2</v>
-      </c>
-      <c r="V73" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="W73" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="X73" s="4">
-        <v>5</v>
-      </c>
+      <c r="B73">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="4"/>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.45">
       <c r="T74" s="4">
+        <v>60</v>
+      </c>
+      <c r="U74" s="4">
+        <v>10</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="W74" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="X74" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T75" s="4">
+        <v>61</v>
+      </c>
+      <c r="U75" s="4">
+        <v>5</v>
+      </c>
+      <c r="V75" t="s">
+        <v>169</v>
+      </c>
+      <c r="W75" t="s">
+        <v>179</v>
+      </c>
+      <c r="X75" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="4">
+        <v>2</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4">
+        <v>1</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T76" s="4">
+        <v>62</v>
+      </c>
+      <c r="U76" s="4">
+        <v>6</v>
+      </c>
+      <c r="V76" t="s">
+        <v>170</v>
+      </c>
+      <c r="W76" t="s">
+        <v>180</v>
+      </c>
+      <c r="X76" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4">
+        <v>2</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="4">
+        <v>2</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4">
+        <v>2</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="T77" s="4">
+        <v>63</v>
+      </c>
+      <c r="U77" s="4">
+        <v>4</v>
+      </c>
+      <c r="V77" t="s">
+        <v>171</v>
+      </c>
+      <c r="W77" t="s">
+        <v>181</v>
+      </c>
+      <c r="X77" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="4">
+        <v>2</v>
+      </c>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4">
+        <v>3</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T78" s="4">
+        <v>64</v>
+      </c>
+      <c r="U78" s="4">
+        <v>1</v>
+      </c>
+      <c r="V78" t="s">
+        <v>172</v>
+      </c>
+      <c r="W78" t="s">
+        <v>182</v>
+      </c>
+      <c r="X78" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4">
+        <v>4</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>4</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T79" s="4">
+        <v>65</v>
+      </c>
+      <c r="U79" s="4">
+        <v>3</v>
+      </c>
+      <c r="V79" t="s">
+        <v>173</v>
+      </c>
+      <c r="W79" t="s">
+        <v>183</v>
+      </c>
+      <c r="X79" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4">
+        <v>5</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>5</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T80" s="4">
+        <v>66</v>
+      </c>
+      <c r="U80" s="4">
+        <v>2</v>
+      </c>
+      <c r="V80" t="s">
+        <v>174</v>
+      </c>
+      <c r="W80" t="s">
+        <v>184</v>
+      </c>
+      <c r="X80" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" s="4">
+        <v>3</v>
+      </c>
+      <c r="T81" s="4">
+        <v>67</v>
+      </c>
+      <c r="U81" s="4">
+        <v>7</v>
+      </c>
+      <c r="V81" t="s">
+        <v>175</v>
+      </c>
+      <c r="W81" t="s">
+        <v>185</v>
+      </c>
+      <c r="X81" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4">
+        <v>7</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" s="4">
+        <v>3</v>
+      </c>
+      <c r="T82" s="4">
+        <v>68</v>
+      </c>
+      <c r="U82" s="4">
+        <v>9</v>
+      </c>
+      <c r="V82" t="s">
+        <v>176</v>
+      </c>
+      <c r="W82" t="s">
+        <v>186</v>
+      </c>
+      <c r="X82" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="C83" s="4">
+        <v>8</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" s="4">
+        <v>5</v>
+      </c>
+      <c r="T83" s="4">
+        <v>69</v>
+      </c>
+      <c r="U83" s="4">
+        <v>10</v>
+      </c>
+      <c r="V83" t="s">
+        <v>177</v>
+      </c>
+      <c r="W83" t="s">
+        <v>187</v>
+      </c>
+      <c r="X83" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="C84" s="4">
+        <v>9</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" s="4">
+        <v>5</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="T84" s="4">
+        <v>70</v>
+      </c>
+      <c r="U84" s="4">
+        <v>8</v>
+      </c>
+      <c r="V84" t="s">
+        <v>178</v>
+      </c>
+      <c r="W84" t="s">
+        <v>188</v>
+      </c>
+      <c r="X84" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="C85" s="4">
+        <v>10</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="4">
+        <v>4</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="T85" s="4">
+        <v>71</v>
+      </c>
+      <c r="U85" s="4">
+        <v>2</v>
+      </c>
+      <c r="V85" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="W85" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="X85" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="C86" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="4">
+        <v>4</v>
+      </c>
+      <c r="T86" s="4">
         <v>72</v>
       </c>
-      <c r="U74" s="4">
-        <v>4</v>
-      </c>
-      <c r="V74" s="6" t="s">
+      <c r="U86" s="4">
+        <v>4</v>
+      </c>
+      <c r="V86" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="W86" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="X86" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T87" s="4">
+        <v>73</v>
+      </c>
+      <c r="U87" s="4">
+        <v>5</v>
+      </c>
+      <c r="V87" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="W74" s="6" t="s">
+      <c r="W87" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="X74" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T75" s="4">
-        <v>73</v>
-      </c>
-      <c r="U75" s="4">
-        <v>5</v>
-      </c>
-      <c r="V75" s="6" t="s">
+      <c r="X87" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T88" s="4">
+        <v>74</v>
+      </c>
+      <c r="U88" s="4">
+        <v>5</v>
+      </c>
+      <c r="V88" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="W75" s="6" t="s">
+      <c r="W88" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="X75" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T76" s="4">
-        <v>74</v>
-      </c>
-      <c r="U76" s="4">
-        <v>5</v>
-      </c>
-      <c r="V76" s="6" t="s">
+      <c r="X88" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="T89" s="4">
+        <v>75</v>
+      </c>
+      <c r="U89" s="4">
+        <v>8</v>
+      </c>
+      <c r="V89" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="W76" s="6" t="s">
+      <c r="W89" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="X76" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="T77" s="4">
-        <v>75</v>
-      </c>
-      <c r="U77" s="4">
-        <v>8</v>
-      </c>
-      <c r="V77" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="W77" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="X77" s="4">
+      <c r="X89" s="4">
         <v>5</v>
       </c>
     </row>
